--- a/data/excel/Global.xlsx
+++ b/data/excel/Global.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>cs</t>
   </si>
@@ -25,7 +25,10 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Value2</t>
+    <t>SlcValue</t>
+  </si>
+  <si>
+    <t>StrValue</t>
   </si>
   <si>
     <t>Desc</t>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t>数据2，二维数组</t>
+  </si>
+  <si>
+    <t>字符串数据</t>
   </si>
   <si>
     <t>备注</t>
@@ -1032,21 +1038,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="3" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,9 +1062,12 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1071,52 +1080,64 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/Global.xlsx
+++ b/data/excel/Global.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13140"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>cs</t>
   </si>
@@ -58,16 +58,10 @@
     <t>备注</t>
   </si>
   <si>
-    <t>TestKey1</t>
-  </si>
-  <si>
-    <t>1:1:1|2:2:2</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>TestKey2</t>
+    <t>AccountMaxLen</t>
+  </si>
+  <si>
+    <t>账号最大长度</t>
   </si>
 </sst>
 </file>
@@ -1038,18 +1032,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1123,21 +1117,11 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5"/>
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/Global.xlsx
+++ b/data/excel/Global.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="28125" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>cs</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>账号最大长度</t>
+  </si>
+  <si>
+    <t>RoleNameMinLen</t>
+  </si>
+  <si>
+    <t>角色名最小长度</t>
+  </si>
+  <si>
+    <t>RoleNameMaxLen</t>
+  </si>
+  <si>
+    <t>角色名最大长度</t>
   </si>
 </sst>
 </file>
@@ -1032,13 +1044,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
@@ -1119,9 +1131,30 @@
       <c r="B5">
         <v>20</v>
       </c>
-      <c r="C5"/>
       <c r="E5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
